--- a/PopulationByCountry.xlsx
+++ b/PopulationByCountry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andregerbaulet/Documents/Corona/SIR model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/Documents/corona/corona/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C80D4-BF33-C44E-84B9-A66168C644C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8AF017-5FA7-DC48-9374-1FB421D3F2F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{894A8C14-C469-7947-B8BB-D8E5FAE1679C}"/>
   </bookViews>
@@ -1328,9 +1328,6 @@
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>United Kingdom (and dependencies)</t>
   </si>
   <si>
@@ -1352,9 +1349,6 @@
     <t>United States Virgin Islands</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>United States of America (and dependencies)</t>
   </si>
   <si>
@@ -1455,6 +1449,12 @@
   </si>
   <si>
     <t>South Korea</t>
+  </si>
+  <si>
+    <t>United_Kingdom</t>
+  </si>
+  <si>
+    <t>United_States_of_America</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1510,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE9617B-9A63-9F47-89B1-4E36A756A529}">
   <dimension ref="A1:B477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="M382" sqref="M382"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B105">
         <v>25666158</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B217">
         <v>82913893</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="B437">
         <v>67530161</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B438">
         <v>68045699</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B439">
         <v>1306320572</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B440">
         <v>648117584</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B441">
         <v>4590691950</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B442">
         <v>7707903510</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B443">
         <v>58005461</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B444">
         <v>104579</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="B445">
         <v>329064917</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B446">
         <v>332382720</v>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B447">
         <v>2638958430</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B448">
         <v>3461731</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B449">
         <v>32981714.999999996</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B450">
         <v>299882</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B451">
         <v>28515829</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B452">
         <v>96462108</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B453">
         <v>2129754531</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B454">
         <v>421035757</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B455">
         <v>569811869</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B456">
         <v>389753191</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B457">
         <v>1835297503</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B458">
         <v>1106864204</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B459">
         <v>7668888226</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B460">
         <v>1091758856</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B461">
         <v>1009950130</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B462">
         <v>712276291</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B463">
         <v>930166618</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B464">
         <v>2001946277</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B465">
         <v>1922790054</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B466">
         <v>11436</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B467">
         <v>127107468</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B468">
         <v>391440147</v>
@@ -5563,7 +5563,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B469">
         <v>275324793</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B470">
         <v>195522412</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B471">
         <v>919088423</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B472">
         <v>582458</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B473">
         <v>7713468205</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B474">
         <v>6452517055</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B475">
         <v>29161922</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B476">
         <v>17861034</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B477">
         <v>14645473</v>
